--- a/Modello/nuovi modelli/IndiceMalmquist/Soluzione-Malmquist-1.xlsx
+++ b/Modello/nuovi modelli/IndiceMalmquist/Soluzione-Malmquist-1.xlsx
@@ -315,11 +315,6 @@
     <definedName name="Test9_DMU_9">Test9!$J$2:$J$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -792,7 +787,7 @@
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="B2" sqref="B2:AL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1170,7 +1165,7 @@
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="B2" sqref="B2:AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1363,12 +1358,24 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+      <c r="AG2" s="2">
+        <v>0.1425661914460285</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0.20114942528735633</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0.29088463180224811</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0.24656542952688998</v>
+      </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1405,12 +1412,24 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="AG3" s="2">
+        <v>0.12995426351732348</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0.12957676089333126</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0.14080459770114942</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.64981203007518795</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.2682999392050085</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0.22742174222904449</v>
+      </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1447,12 +1466,24 @@
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="AG4" s="2">
+        <v>0.14613778705636743</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.15625</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0.19337016574585636</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.2924393352232828</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0.14425371410976831</v>
+      </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1489,12 +1520,24 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
+      <c r="AG5" s="2">
+        <v>0.10610587376058753</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.11256082383423929</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.13535911602209943</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0.57436929631319023</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.19239072494669512</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>7.5867717047270328E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1548,7 +1591,7 @@
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2:AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1926,7 +1969,7 @@
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AL6" sqref="A1:AL6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
